--- a/data/trans_orig/P36S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36S2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F463BD-BF04-4CC6-A78B-FE3094EF7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C053615-67C7-4989-9668-43AABA96A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71794120-B5CE-4E19-A7B1-B4655A6AEC79}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67F110DC-5014-41E6-B75A-0500B71E1CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="362">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2007 (Tasa respuesta: 77,12%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>Alimentos como huevos, queso, jamón, etc</t>
@@ -109,1036 +109,1021 @@
     <t>0,37%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC4F18C-9245-45E3-A586-571B8040DF4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D88685-1B24-4811-8309-1E4A54CBAD50}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1761,13 +1746,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>21</v>
@@ -1776,13 +1761,13 @@
         <v>20478</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -1791,13 +1776,13 @@
         <v>31151</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -1806,19 +1791,19 @@
         <v>51628</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>745</v>
@@ -1827,13 +1812,13 @@
         <v>738941</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>973</v>
@@ -1842,13 +1827,13 @@
         <v>990741</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>1718</v>
@@ -1857,19 +1842,19 @@
         <v>1729683</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -1878,13 +1863,13 @@
         <v>11524</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1893,13 +1878,13 @@
         <v>9123</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -1908,13 +1893,13 @@
         <v>20647</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1914,13 @@
         <v>799337</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1038</v>
@@ -1944,13 +1929,13 @@
         <v>1056646</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1842</v>
@@ -1959,18 +1944,18 @@
         <v>1855983</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1982,13 +1967,13 @@
         <v>10513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1997,13 +1982,13 @@
         <v>4034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2012,13 +1997,13 @@
         <v>14547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,13 +2018,13 @@
         <v>27749</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2048,13 +2033,13 @@
         <v>9114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2063,19 +2048,19 @@
         <v>36862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>45</v>
@@ -2084,13 +2069,13 @@
         <v>46394</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -2099,13 +2084,13 @@
         <v>77051</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -2114,19 +2099,19 @@
         <v>123445</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>1165</v>
@@ -2135,13 +2120,13 @@
         <v>1193104</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>1089</v>
@@ -2150,34 +2135,34 @@
         <v>1117105</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>2254</v>
       </c>
       <c r="N13" s="7">
-        <v>2310210</v>
+        <v>2310209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
@@ -2186,13 +2171,13 @@
         <v>12848</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2201,13 +2186,13 @@
         <v>14460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -2216,13 +2201,13 @@
         <v>27307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2222,13 @@
         <v>1290607</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1196</v>
@@ -2252,33 +2237,33 @@
         <v>1221764</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>2455</v>
       </c>
       <c r="N15" s="7">
-        <v>2512372</v>
+        <v>2512371</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2290,13 +2275,13 @@
         <v>2863</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2305,13 +2290,13 @@
         <v>973</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2320,13 +2305,13 @@
         <v>3837</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2326,13 @@
         <v>4602</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2359,10 +2344,10 @@
         <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2371,19 +2356,19 @@
         <v>4602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>19</v>
@@ -2392,13 +2377,13 @@
         <v>20785</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -2407,13 +2392,13 @@
         <v>21681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -2422,19 +2407,19 @@
         <v>42466</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>365</v>
@@ -2443,13 +2428,13 @@
         <v>385718</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>307</v>
@@ -2458,13 +2443,13 @@
         <v>324018</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>672</v>
@@ -2473,19 +2458,19 @@
         <v>709736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2494,13 +2479,13 @@
         <v>882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2509,13 +2494,13 @@
         <v>2730</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2524,13 +2509,13 @@
         <v>3612</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2530,13 @@
         <v>414850</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>332</v>
@@ -2560,13 +2545,13 @@
         <v>349402</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>724</v>
@@ -2575,13 +2560,13 @@
         <v>764252</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2583,13 @@
         <v>34291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -2613,28 +2598,28 @@
         <v>29045</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>63337</v>
+        <v>63336</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2634,13 @@
         <v>39830</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -2664,13 +2649,13 @@
         <v>10707</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -2679,19 +2664,19 @@
         <v>50537</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>85</v>
@@ -2700,13 +2685,13 @@
         <v>87656</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>129</v>
@@ -2715,13 +2700,13 @@
         <v>129883</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>214</v>
@@ -2730,19 +2715,19 @@
         <v>217539</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>2275</v>
@@ -2751,13 +2736,13 @@
         <v>2317763</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>2369</v>
@@ -2766,34 +2751,34 @@
         <v>2431864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>4644</v>
       </c>
       <c r="N25" s="7">
-        <v>4749629</v>
+        <v>4749628</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>23</v>
@@ -2802,13 +2787,13 @@
         <v>25253</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -2817,13 +2802,13 @@
         <v>26312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -2832,13 +2817,13 @@
         <v>51566</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2838,13 @@
         <v>2504794</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>2566</v>
@@ -2868,33 +2853,33 @@
         <v>2627812</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>5021</v>
       </c>
       <c r="N27" s="7">
-        <v>5132607</v>
+        <v>5132606</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2913,7 +2898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7D6461-3F93-4F2B-8B76-A1C1E4F26A83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE4B27-DCDC-4EA3-B7EA-F85C69AE373D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,7 +2915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3037,13 +3022,13 @@
         <v>5421</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3052,13 +3037,13 @@
         <v>2169</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3067,13 +3052,13 @@
         <v>7591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3073,13 @@
         <v>18059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3103,13 +3088,13 @@
         <v>6104</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -3118,19 +3103,19 @@
         <v>24162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>29</v>
@@ -3139,13 +3124,13 @@
         <v>30173</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>54</v>
@@ -3154,13 +3139,13 @@
         <v>57545</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M6" s="7">
         <v>83</v>
@@ -3169,19 +3154,19 @@
         <v>87718</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>696</v>
@@ -3190,13 +3175,13 @@
         <v>747852</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>1021</v>
@@ -3205,13 +3190,13 @@
         <v>1098810</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>1717</v>
@@ -3220,19 +3205,19 @@
         <v>1846662</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -3241,13 +3226,13 @@
         <v>4051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3256,13 +3241,13 @@
         <v>5481</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3271,13 +3256,13 @@
         <v>9532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3277,13 @@
         <v>805556</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1088</v>
@@ -3307,13 +3292,13 @@
         <v>1170109</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1838</v>
@@ -3322,18 +3307,18 @@
         <v>1975665</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3345,13 +3330,13 @@
         <v>10428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3360,13 +3345,13 @@
         <v>8512</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3375,13 +3360,13 @@
         <v>18940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3381,13 @@
         <v>18856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -3411,13 +3396,13 @@
         <v>14048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -3426,19 +3411,19 @@
         <v>32904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>80</v>
@@ -3447,13 +3432,13 @@
         <v>82813</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -3462,13 +3447,13 @@
         <v>83569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -3477,19 +3462,19 @@
         <v>166382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>1404</v>
@@ -3498,13 +3483,13 @@
         <v>1485329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>1272</v>
@@ -3513,13 +3498,13 @@
         <v>1374057</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>2676</v>
@@ -3528,19 +3513,19 @@
         <v>2859386</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>8</v>
@@ -3549,13 +3534,13 @@
         <v>8219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3564,13 +3549,13 @@
         <v>6151</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3579,13 +3564,13 @@
         <v>14370</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3585,13 @@
         <v>1605645</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1380</v>
@@ -3615,13 +3600,13 @@
         <v>1486337</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>2901</v>
@@ -3630,18 +3615,18 @@
         <v>3091982</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3653,13 +3638,13 @@
         <v>2002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3671,10 +3656,10 @@
         <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3683,13 +3668,13 @@
         <v>5700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3689,13 @@
         <v>2978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3719,13 +3704,13 @@
         <v>947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3737,16 +3722,16 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>26</v>
@@ -3755,13 +3740,13 @@
         <v>26473</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -3770,13 +3755,13 @@
         <v>28528</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -3785,19 +3770,19 @@
         <v>55001</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>335</v>
@@ -3806,13 +3791,13 @@
         <v>367957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>326</v>
@@ -3821,13 +3806,13 @@
         <v>361448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>661</v>
@@ -3836,19 +3821,19 @@
         <v>729404</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -3857,13 +3842,13 @@
         <v>947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3875,10 +3860,10 @@
         <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3887,13 +3872,13 @@
         <v>947</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3893,13 @@
         <v>400356</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>355</v>
@@ -3923,13 +3908,13 @@
         <v>394622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>722</v>
@@ -3938,13 +3923,13 @@
         <v>794978</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3946,13 @@
         <v>17851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3976,13 +3961,13 @@
         <v>14380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3991,13 +3976,13 @@
         <v>32231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +3997,13 @@
         <v>39892</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -4027,13 +4012,13 @@
         <v>21099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -4042,19 +4027,19 @@
         <v>60991</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>135</v>
@@ -4063,13 +4048,13 @@
         <v>139458</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H24" s="7">
         <v>159</v>
@@ -4078,13 +4063,13 @@
         <v>169643</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
         <v>294</v>
@@ -4093,19 +4078,19 @@
         <v>309101</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>2435</v>
@@ -4114,13 +4099,13 @@
         <v>2601137</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>2619</v>
@@ -4129,13 +4114,13 @@
         <v>2834315</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>5054</v>
@@ -4144,19 +4129,19 @@
         <v>5435452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>13</v>
@@ -4165,13 +4150,13 @@
         <v>13217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -4180,13 +4165,13 @@
         <v>11632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4195,13 +4180,13 @@
         <v>24849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4201,13 @@
         <v>2811556</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>2823</v>
@@ -4231,13 +4216,13 @@
         <v>3051068</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>5461</v>
@@ -4246,18 +4231,18 @@
         <v>5862624</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4276,7 +4261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118B7BA3-BA79-4504-8745-D04A2E4FC0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BCF144-ED27-4036-B78A-078293D5EABF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4293,7 +4278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4400,13 +4385,13 @@
         <v>3903</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4415,10 +4400,10 @@
         <v>5324</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>287</v>
@@ -4430,13 +4415,13 @@
         <v>9228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,10 +4439,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4466,13 +4451,13 @@
         <v>981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4481,19 +4466,19 @@
         <v>3993</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -4505,7 +4490,7 @@
         <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>295</v>
@@ -4520,7 +4505,7 @@
         <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>297</v>
@@ -4544,7 +4529,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>603</v>
@@ -4589,13 +4574,13 @@
         <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4604,13 +4589,13 @@
         <v>3117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4619,13 +4604,13 @@
         <v>1194</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4637,10 +4622,10 @@
         <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4640,13 @@
         <v>615979</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>789</v>
@@ -4670,13 +4655,13 @@
         <v>883223</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1415</v>
@@ -4685,18 +4670,18 @@
         <v>1499202</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4711,10 +4696,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4723,13 +4708,13 @@
         <v>11095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4738,13 +4723,13 @@
         <v>17540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4744,13 @@
         <v>15457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4774,13 +4759,13 @@
         <v>8686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -4789,19 +4774,19 @@
         <v>24143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>84</v>
@@ -4810,13 +4795,13 @@
         <v>91421</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -4825,13 +4810,13 @@
         <v>83792</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>168</v>
@@ -4840,19 +4825,19 @@
         <v>175213</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>1530</v>
@@ -4861,13 +4846,13 @@
         <v>1620099</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>1559</v>
@@ -4876,13 +4861,13 @@
         <v>1630772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>3089</v>
@@ -4891,19 +4876,19 @@
         <v>3250871</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -4912,13 +4897,13 @@
         <v>1946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4927,13 +4912,13 @@
         <v>4622</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4942,13 +4927,13 @@
         <v>6568</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4948,13 @@
         <v>1735368</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1667</v>
@@ -4978,13 +4963,13 @@
         <v>1738967</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3303</v>
@@ -4993,18 +4978,18 @@
         <v>3474335</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5016,13 +5001,13 @@
         <v>1265</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>332</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5031,13 +5016,13 @@
         <v>3065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5046,13 +5031,13 @@
         <v>4330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5052,13 @@
         <v>4000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5082,13 +5067,13 @@
         <v>1925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5097,19 +5082,19 @@
         <v>5925</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -5118,13 +5103,13 @@
         <v>19006</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>334</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -5133,13 +5118,13 @@
         <v>29965</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>157</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5148,19 +5133,19 @@
         <v>48970</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>425</v>
@@ -5169,13 +5154,13 @@
         <v>463150</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>250</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>445</v>
@@ -5184,13 +5169,13 @@
         <v>467525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>870</v>
@@ -5199,19 +5184,19 @@
         <v>930675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -5220,13 +5205,13 @@
         <v>996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5235,13 +5220,13 @@
         <v>1083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5250,13 +5235,13 @@
         <v>2079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5256,13 @@
         <v>488416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>481</v>
@@ -5286,13 +5271,13 @@
         <v>503563</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>929</v>
@@ -5301,13 +5286,13 @@
         <v>991979</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5309,13 @@
         <v>11613</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5339,13 +5324,13 @@
         <v>19485</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5354,13 +5339,13 @@
         <v>31098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5360,13 @@
         <v>22468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -5393,10 +5378,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -5405,19 +5390,19 @@
         <v>34061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>114</v>
@@ -5426,13 +5411,13 @@
         <v>122917</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="H24" s="7">
         <v>131</v>
@@ -5441,13 +5426,13 @@
         <v>131077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>245</v>
@@ -5456,19 +5441,19 @@
         <v>253995</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>2558</v>
@@ -5477,13 +5462,13 @@
         <v>2676705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H25" s="7">
         <v>2769</v>
@@ -5492,13 +5477,13 @@
         <v>2956700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M25" s="7">
         <v>5327</v>
@@ -5507,19 +5492,19 @@
         <v>5633404</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
@@ -5528,13 +5513,13 @@
         <v>6060</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -5543,13 +5528,13 @@
         <v>6899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -5558,10 +5543,10 @@
         <v>12958</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>22</v>
@@ -5579,13 +5564,13 @@
         <v>2839763</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>2937</v>
@@ -5594,13 +5579,13 @@
         <v>3125753</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>5647</v>
@@ -5609,18 +5594,18 @@
         <v>5965516</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36S2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C053615-67C7-4989-9668-43AABA96A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64240138-C0A5-4928-8D43-536B06DF6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67F110DC-5014-41E6-B75A-0500B71E1CDA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5114A00-2DEC-42C7-95C3-86012F298B13}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="369">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2007 (Tasa respuesta: 77,12%)</t>
   </si>
@@ -76,16 +76,16 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>3,3%</t>
@@ -94,10 +94,10 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>Alimentos como huevos, queso, jamón, etc</t>
@@ -109,7 +109,7 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -118,1012 +118,1033 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,76%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2016 (Tasa respuesta: 86,28%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D88685-1B24-4811-8309-1E4A54CBAD50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85527018-8B11-4DBF-9167-CFA3886131D2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1746,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>21</v>
@@ -1761,13 +1782,13 @@
         <v>20478</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -1776,13 +1797,13 @@
         <v>31151</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -1791,19 +1812,19 @@
         <v>51628</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>745</v>
@@ -1812,13 +1833,13 @@
         <v>738941</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>973</v>
@@ -1827,13 +1848,13 @@
         <v>990741</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>1718</v>
@@ -1842,19 +1863,19 @@
         <v>1729683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -1863,13 +1884,13 @@
         <v>11524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1899,7 +1920,7 @@
         <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1935,13 @@
         <v>799337</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1038</v>
@@ -1929,13 +1950,13 @@
         <v>1056646</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>1842</v>
@@ -1944,18 +1965,18 @@
         <v>1855983</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1967,13 +1988,13 @@
         <v>10513</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1982,13 +2003,13 @@
         <v>4034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -1997,13 +2018,13 @@
         <v>14547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +2039,13 @@
         <v>27749</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2033,13 +2054,13 @@
         <v>9114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2048,19 +2069,19 @@
         <v>36862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>45</v>
@@ -2069,13 +2090,13 @@
         <v>46394</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -2084,13 +2105,13 @@
         <v>77051</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -2099,19 +2120,19 @@
         <v>123445</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>1165</v>
@@ -2120,13 +2141,13 @@
         <v>1193104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>1089</v>
@@ -2135,13 +2156,13 @@
         <v>1117105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>2254</v>
@@ -2150,19 +2171,19 @@
         <v>2310209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
@@ -2171,13 +2192,13 @@
         <v>12848</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2186,13 +2207,13 @@
         <v>14460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -2201,13 +2222,13 @@
         <v>27307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2243,13 @@
         <v>1290607</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1196</v>
@@ -2237,13 +2258,13 @@
         <v>1221764</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>2455</v>
@@ -2252,18 +2273,18 @@
         <v>2512371</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2275,13 +2296,13 @@
         <v>2863</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2332,7 +2353,7 @@
         <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2344,10 +2365,10 @@
         <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2356,19 +2377,19 @@
         <v>4602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>19</v>
@@ -2377,13 +2398,13 @@
         <v>20785</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -2392,10 +2413,10 @@
         <v>21681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>117</v>
@@ -2419,7 +2440,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>365</v>
@@ -2428,13 +2449,13 @@
         <v>385718</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>307</v>
@@ -2443,13 +2464,13 @@
         <v>324018</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>672</v>
@@ -2458,19 +2479,19 @@
         <v>709736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2479,13 +2500,13 @@
         <v>882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2494,13 +2515,13 @@
         <v>2730</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2509,13 +2530,13 @@
         <v>3612</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2551,13 @@
         <v>414850</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>332</v>
@@ -2545,13 +2566,13 @@
         <v>349402</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>724</v>
@@ -2560,13 +2581,13 @@
         <v>764252</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2604,13 @@
         <v>34291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -2601,25 +2622,25 @@
         <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>63336</v>
+        <v>63337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2655,13 @@
         <v>39830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -2649,13 +2670,13 @@
         <v>10707</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -2667,7 +2688,7 @@
         <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>148</v>
@@ -2676,7 +2697,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>85</v>
@@ -2715,19 +2736,19 @@
         <v>217539</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>2275</v>
@@ -2736,13 +2757,13 @@
         <v>2317763</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>2369</v>
@@ -2751,34 +2772,34 @@
         <v>2431864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>4644</v>
       </c>
       <c r="N25" s="7">
-        <v>4749628</v>
+        <v>4749629</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>23</v>
@@ -2787,13 +2808,13 @@
         <v>25253</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -2802,13 +2823,13 @@
         <v>26312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -2817,13 +2838,13 @@
         <v>51566</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2859,13 @@
         <v>2504794</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>2566</v>
@@ -2853,33 +2874,33 @@
         <v>2627812</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>5021</v>
       </c>
       <c r="N27" s="7">
-        <v>5132606</v>
+        <v>5132607</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE4B27-DCDC-4EA3-B7EA-F85C69AE373D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFD8A55-FA46-4E1C-9B71-344AC020A32D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2915,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3025,10 +3046,10 @@
         <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3037,13 +3058,13 @@
         <v>2169</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3052,13 +3073,13 @@
         <v>7591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3094,13 @@
         <v>18059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3088,13 +3109,13 @@
         <v>6104</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -3103,19 +3124,19 @@
         <v>24162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>29</v>
@@ -3124,13 +3145,13 @@
         <v>30173</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>54</v>
@@ -3139,13 +3160,13 @@
         <v>57545</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>83</v>
@@ -3154,19 +3175,19 @@
         <v>87718</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>696</v>
@@ -3175,13 +3196,13 @@
         <v>747852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>1021</v>
@@ -3190,13 +3211,13 @@
         <v>1098810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>1717</v>
@@ -3205,19 +3226,19 @@
         <v>1846662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -3229,10 +3250,10 @@
         <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3241,13 +3262,13 @@
         <v>5481</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3256,13 +3277,13 @@
         <v>9532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3298,13 @@
         <v>805556</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1088</v>
@@ -3292,13 +3313,13 @@
         <v>1170109</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>1838</v>
@@ -3307,18 +3328,18 @@
         <v>1975665</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3330,13 +3351,13 @@
         <v>10428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3345,13 +3366,13 @@
         <v>8512</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3360,13 +3381,13 @@
         <v>18940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3402,13 @@
         <v>18856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -3396,13 +3417,13 @@
         <v>14048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -3411,19 +3432,19 @@
         <v>32904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>80</v>
@@ -3432,13 +3453,13 @@
         <v>82813</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -3447,13 +3468,13 @@
         <v>83569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -3462,19 +3483,19 @@
         <v>166382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>1404</v>
@@ -3483,13 +3504,13 @@
         <v>1485329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>1272</v>
@@ -3498,13 +3519,13 @@
         <v>1374057</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>2676</v>
@@ -3513,19 +3534,19 @@
         <v>2859386</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>8</v>
@@ -3534,13 +3555,13 @@
         <v>8219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3549,10 +3570,10 @@
         <v>6151</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>53</v>
@@ -3564,13 +3585,13 @@
         <v>14370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3606,13 @@
         <v>1605645</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1380</v>
@@ -3600,13 +3621,13 @@
         <v>1486337</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>2901</v>
@@ -3615,18 +3636,18 @@
         <v>3091982</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3644,7 +3665,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3656,10 +3677,10 @@
         <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3668,13 +3689,13 @@
         <v>5700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3710,13 @@
         <v>2978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3704,13 +3725,13 @@
         <v>947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3725,13 +3746,13 @@
         <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>26</v>
@@ -3740,13 +3761,13 @@
         <v>26473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -3755,13 +3776,13 @@
         <v>28528</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -3770,19 +3791,19 @@
         <v>55001</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>335</v>
@@ -3791,13 +3812,13 @@
         <v>367957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>326</v>
@@ -3806,13 +3827,13 @@
         <v>361448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>661</v>
@@ -3821,19 +3842,19 @@
         <v>729404</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -3842,13 +3863,13 @@
         <v>947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3860,10 +3881,10 @@
         <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3872,13 +3893,13 @@
         <v>947</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3914,13 @@
         <v>400356</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>355</v>
@@ -3908,13 +3929,13 @@
         <v>394622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>722</v>
@@ -3923,13 +3944,13 @@
         <v>794978</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3967,13 @@
         <v>17851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3961,13 +3982,13 @@
         <v>14380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3976,13 +3997,13 @@
         <v>32231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +4018,13 @@
         <v>39892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -4012,13 +4033,13 @@
         <v>21099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -4027,19 +4048,19 @@
         <v>60991</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>135</v>
@@ -4048,13 +4069,13 @@
         <v>139458</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H24" s="7">
         <v>159</v>
@@ -4066,10 +4087,10 @@
         <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M24" s="7">
         <v>294</v>
@@ -4078,10 +4099,10 @@
         <v>309101</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>276</v>
@@ -4090,7 +4111,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>2435</v>
@@ -4102,10 +4123,10 @@
         <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>2619</v>
@@ -4114,13 +4135,13 @@
         <v>2834315</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="M25" s="7">
         <v>5054</v>
@@ -4132,16 +4153,16 @@
         <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>13</v>
@@ -4150,13 +4171,13 @@
         <v>13217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -4165,13 +4186,13 @@
         <v>11632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4180,13 +4201,13 @@
         <v>24849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4222,13 @@
         <v>2811556</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>2823</v>
@@ -4216,13 +4237,13 @@
         <v>3051068</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>5461</v>
@@ -4231,18 +4252,18 @@
         <v>5862624</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4261,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BCF144-ED27-4036-B78A-078293D5EABF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3F100C-6DB5-4893-8DCF-86A981C7ECEA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4278,7 +4299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4385,13 +4406,13 @@
         <v>3903</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4400,13 +4421,13 @@
         <v>5324</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4415,13 +4436,13 @@
         <v>9228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,10 +4460,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4451,13 +4472,13 @@
         <v>981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4466,19 +4487,19 @@
         <v>3993</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -4487,13 +4508,13 @@
         <v>12491</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -4502,13 +4523,13 @@
         <v>17321</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>297</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -4517,19 +4538,19 @@
         <v>29811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>603</v>
@@ -4541,10 +4562,10 @@
         <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>765</v>
@@ -4553,13 +4574,13 @@
         <v>858403</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>1368</v>
@@ -4568,19 +4589,19 @@
         <v>1451859</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4589,13 +4610,13 @@
         <v>3117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4604,13 +4625,13 @@
         <v>1194</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4619,13 +4640,13 @@
         <v>4311</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4661,13 @@
         <v>615979</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>789</v>
@@ -4655,13 +4676,13 @@
         <v>883223</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>1415</v>
@@ -4670,18 +4691,18 @@
         <v>1499202</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4696,10 +4717,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4708,13 +4729,13 @@
         <v>11095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4726,10 +4747,10 @@
         <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4765,13 @@
         <v>15457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4762,10 +4783,10 @@
         <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -4774,19 +4795,19 @@
         <v>24143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>84</v>
@@ -4795,13 +4816,13 @@
         <v>91421</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -4810,13 +4831,13 @@
         <v>83792</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M12" s="7">
         <v>168</v>
@@ -4825,19 +4846,19 @@
         <v>175213</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>1530</v>
@@ -4846,13 +4867,13 @@
         <v>1620099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>1559</v>
@@ -4861,13 +4882,13 @@
         <v>1630772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>3089</v>
@@ -4876,19 +4897,19 @@
         <v>3250871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -4897,13 +4918,13 @@
         <v>1946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4912,13 +4933,13 @@
         <v>4622</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4927,13 +4948,13 @@
         <v>6568</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4969,13 @@
         <v>1735368</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1667</v>
@@ -4963,13 +4984,13 @@
         <v>1738967</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3303</v>
@@ -4978,18 +4999,18 @@
         <v>3474335</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5001,13 +5022,13 @@
         <v>1265</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5016,13 +5037,13 @@
         <v>3065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5031,13 +5052,13 @@
         <v>4330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5073,13 @@
         <v>4000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5067,13 +5088,13 @@
         <v>1925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5082,19 +5103,19 @@
         <v>5925</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -5103,13 +5124,13 @@
         <v>19006</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -5118,13 +5139,13 @@
         <v>29965</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5136,16 +5157,16 @@
         <v>152</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>425</v>
@@ -5154,13 +5175,13 @@
         <v>463150</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>445</v>
@@ -5169,13 +5190,13 @@
         <v>467525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M19" s="7">
         <v>870</v>
@@ -5184,19 +5205,19 @@
         <v>930675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -5205,13 +5226,13 @@
         <v>996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5220,13 +5241,13 @@
         <v>1083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5235,13 +5256,13 @@
         <v>2079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5277,13 @@
         <v>488416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>481</v>
@@ -5271,13 +5292,13 @@
         <v>503563</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>929</v>
@@ -5286,13 +5307,13 @@
         <v>991979</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5330,13 @@
         <v>11613</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5324,13 +5345,13 @@
         <v>19485</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5339,13 +5360,13 @@
         <v>31098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5381,13 @@
         <v>22468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -5378,10 +5399,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -5390,19 +5411,19 @@
         <v>34061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>114</v>
@@ -5411,13 +5432,13 @@
         <v>122917</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>349</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="H24" s="7">
         <v>131</v>
@@ -5426,13 +5447,13 @@
         <v>131077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>245</v>
@@ -5441,19 +5462,19 @@
         <v>253995</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>354</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>2558</v>
@@ -5462,13 +5483,13 @@
         <v>2676705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>2769</v>
@@ -5477,13 +5498,13 @@
         <v>2956700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M25" s="7">
         <v>5327</v>
@@ -5492,19 +5513,19 @@
         <v>5633404</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
@@ -5513,13 +5534,13 @@
         <v>6060</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -5528,13 +5549,13 @@
         <v>6899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -5543,7 +5564,7 @@
         <v>12958</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>106</v>
@@ -5564,13 +5585,13 @@
         <v>2839763</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>2937</v>
@@ -5579,13 +5600,13 @@
         <v>3125753</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>5647</v>
@@ -5594,18 +5615,18 @@
         <v>5965516</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
